--- a/Subresultados/50tries/xlsx/Comparativas/woGRASP/Ranking_GACEP3103_234.xlsx
+++ b/Subresultados/50tries/xlsx/Comparativas/woGRASP/Ranking_GACEP3103_234.xlsx
@@ -1,88 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Manuel\Desktop\TFG_IRENE\xlsx\Comparativas\woGRASP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">c50</t>
+    <t>c50</t>
   </si>
   <si>
-    <t xml:space="preserve">c60</t>
+    <t>c60</t>
   </si>
   <si>
-    <t xml:space="preserve">c70</t>
+    <t>c70</t>
   </si>
   <si>
-    <t xml:space="preserve">c80</t>
+    <t>c80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4169E1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,142 +70,77 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4169E1"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF579D1C"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -248,49 +159,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$O$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -334,8 +230,8 @@
                 <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -344,46 +240,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.7113402062</c:v>
+                  <c:v>2.4742268041000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.412371134</c:v>
+                  <c:v>2.7628865979000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6082474227</c:v>
+                  <c:v>3.2319587629000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8659793814</c:v>
+                  <c:v>3.2577319588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9329896907</c:v>
+                  <c:v>2.9226804124000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4432989691</c:v>
+                  <c:v>2.2525773195999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5154639175</c:v>
+                  <c:v>1.9278350515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4793814433</c:v>
+                  <c:v>1.5824742268000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5618556701</c:v>
+                  <c:v>1.4587628866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6649484536</c:v>
+                  <c:v>1.5103092784000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7164948454</c:v>
+                  <c:v>1.5515463918000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7886597938</c:v>
+                  <c:v>1.5721649485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8711340206</c:v>
+                  <c:v>1.5721649485</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8711340206</c:v>
+                  <c:v>1.5618556700999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,49 +301,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$O$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -491,8 +372,8 @@
                 <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -501,46 +382,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.0618556701</c:v>
+                  <c:v>1.9587628866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2474226804</c:v>
+                  <c:v>2.1443298969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4845360825</c:v>
+                  <c:v>2.0463917525999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7525773196</c:v>
+                  <c:v>2.2628865979000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9175257732</c:v>
+                  <c:v>2.1082474226999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8041237113</c:v>
+                  <c:v>1.8505154639000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7628865979</c:v>
+                  <c:v>1.8041237112999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7577319588</c:v>
+                  <c:v>1.7680412371000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7577319588</c:v>
+                  <c:v>1.8195876288999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7474226804</c:v>
+                  <c:v>1.7886597938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8402061856</c:v>
+                  <c:v>1.7474226803999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8298969072</c:v>
+                  <c:v>1.7783505154999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.881443299</c:v>
+                  <c:v>1.7886597938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.881443299</c:v>
+                  <c:v>1.7783505154999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,49 +443,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$O$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -648,8 +514,8 @@
                 <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -658,46 +524,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.1237113402</c:v>
+                  <c:v>2.1340206186000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7731958763</c:v>
+                  <c:v>2.0206185567000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7731958763</c:v>
+                  <c:v>1.9587628866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8144329897</c:v>
+                  <c:v>1.8041237112999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9175257732</c:v>
+                  <c:v>1.8350515463999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1340206186</c:v>
+                  <c:v>2.4432989691000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1649484536</c:v>
+                  <c:v>2.6288659794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1494845361</c:v>
+                  <c:v>2.7422680412</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1082474227</c:v>
+                  <c:v>2.7525773195999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0463917526</c:v>
+                  <c:v>2.7628865979000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0154639175</c:v>
+                  <c:v>2.7628865979000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0463917526</c:v>
+                  <c:v>2.7525773195999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0051546392</c:v>
+                  <c:v>2.7525773195999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9948453608</c:v>
+                  <c:v>2.7628865979000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,49 +585,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$O$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -805,8 +656,8 @@
                 <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -815,93 +666,110 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.1030927835</c:v>
+                  <c:v>3.4329896906999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5670103093</c:v>
+                  <c:v>3.0721649485000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1340206186</c:v>
+                  <c:v>2.7628865979000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5670103093</c:v>
+                  <c:v>2.6752577319999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2319587629</c:v>
+                  <c:v>3.1340206186000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.618556701</c:v>
+                  <c:v>3.4536082474000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5567010309</c:v>
+                  <c:v>3.6391752576999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6134020619</c:v>
+                  <c:v>3.9072164948000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5721649485</c:v>
+                  <c:v>3.9690721649</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5412371134</c:v>
+                  <c:v>3.9381443299000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4278350515</c:v>
+                  <c:v>3.9381443299000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3350515464</c:v>
+                  <c:v>3.8969072164999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2422680412</c:v>
+                  <c:v>3.8865979381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2525773196</c:v>
+                  <c:v>3.8969072164999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="11284641"/>
-        <c:axId val="94786768"/>
+        <c:smooth val="0"/>
+        <c:axId val="363055664"/>
+        <c:axId val="363059584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11284641"/>
+        <c:axId val="363055664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94786768"/>
+        <c:crossAx val="363059584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94786768"/>
+        <c:axId val="363059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,106 +785,696 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11284641"/>
+        <c:crossAx val="363055664"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2312640" y="1322280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1029,259 +1487,535 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>80</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>90</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>2.7113402062</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>3.412371134</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>3.6082474227</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>3.8659793814</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>3.9329896907</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>3.4432989691</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3.5154639175</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3.4793814433</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3.5618556701</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>3.6649484536</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>3.7164948454</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>3.7886597938</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>3.8711340206</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>3.8711340206</v>
+      <c r="B2" s="2">
+        <v>2.4742268041000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.7628865979000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.2319587629000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.2577319588</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.9226804124000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.2525773195999998</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.9278350515</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.5824742268000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.4587628866</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.5103092784000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.5515463918000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.5721649485</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.5721649485</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.5618556700999999</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2.0618556701</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2.2474226804</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2.4845360825</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>2.7525773196</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2.9175257732</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>2.8041237113</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>2.7628865979</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>2.7577319588</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>2.7577319588</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>2.7474226804</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>2.8402061856</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>2.8298969072</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>2.881443299</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>2.881443299</v>
+      <c r="B3" s="3">
+        <v>1.9587628866</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.1443298969</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.0463917525999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.2628865979000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.1082474226999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.8505154639000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.8041237112999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.7680412371000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.8195876288999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.7886597938</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.7474226803999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.7783505154999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.7886597938</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.7783505154999999</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>2.1237113402</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1.7731958763</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1.7731958763</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1.8144329897</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1.9175257732</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>2.1340206186</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2.1649484536</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2.1494845361</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>2.1082474227</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>2.0463917526</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>2.0154639175</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>2.0463917526</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>2.0051546392</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>1.9948453608</v>
+      <c r="B4" s="2">
+        <v>2.1340206186000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0206185567000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.9587628866</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.8041237112999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.8350515463999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.4432989691000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.6288659794</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.7422680412</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.7525773195999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.7628865979000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.7628865979000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.7525773195999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.7525773195999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.7628865979000001</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>3.1030927835</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2.5670103093</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2.1340206186</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1.5670103093</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1.2319587629</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1.618556701</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1.5567010309</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1.6134020619</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>1.5721649485</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1.5412371134</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>1.4278350515</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1.3350515464</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>1.2422680412</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>1.2525773196</v>
+      <c r="B5" s="2">
+        <v>3.4329896906999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0721649485000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.7628865979000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.6752577319999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.1340206186000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.4536082474000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.6391752576999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.9072164948000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.9690721649</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.9381443299000001</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3.9381443299000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.8969072164999998</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.8865979381</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3.8969072164999998</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>